--- a/docss/trend/netherlands/E_huntington.xlsx
+++ b/docss/trend/netherlands/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>0.31123276986181736</v>
+        <v>0.311</v>
       </c>
       <c r="C2" s="7">
-        <v>0.35509201232343912</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D2" s="7">
-        <v>0.28191766422241926</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.16519650910049677</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C3" s="7">
-        <v>0.21197807230055332</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D3" s="7">
-        <v>0.11552075389772654</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.29443810367956758</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C4" s="7">
-        <v>0.35612823627889156</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D4" s="7">
-        <v>0.23899069987237453</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.26036759396083653</v>
+        <v>0.26</v>
       </c>
       <c r="C5" s="7">
-        <v>0.23585213348269463</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D5" s="7">
-        <v>0.2797056739218533</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.30753403715789318</v>
+        <v>0.308</v>
       </c>
       <c r="C6" s="7">
-        <v>0.25634777173399925</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D6" s="7">
-        <v>0.36030071787536144</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>0.23658238165080547</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>0.23522250633686781</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D7" s="7">
-        <v>0.24484071508049965</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.21167234051972628</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>0.30808668397367001</v>
+        <v>0.308</v>
       </c>
       <c r="D8" s="7">
-        <v>0.12747062789276242</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.28913909592665732</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="C9" s="7">
-        <v>0.29226741660386324</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D9" s="7">
-        <v>0.29399916063994169</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.26649510394781828</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C10" s="7">
-        <v>0.2888519698753953</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D10" s="7">
-        <v>0.24535331688821316</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.18934332206845284</v>
+        <v>0.189</v>
       </c>
       <c r="C11" s="7">
-        <v>0.17232328187674284</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D11" s="7">
-        <v>0.20321030961349607</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.23901889892295003</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C12" s="7">
-        <v>0.23074986878782511</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D12" s="7">
-        <v>0.23926312010735273</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.24657612480223179</v>
+        <v>0.247</v>
       </c>
       <c r="C13" s="7">
-        <v>0.21366587467491627</v>
+        <v>0.214</v>
       </c>
       <c r="D13" s="7">
-        <v>0.27208764292299747</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>0.28644381836056709</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C14" s="7">
-        <v>0.24811166152358055</v>
+        <v>0.248</v>
       </c>
       <c r="D14" s="7">
-        <v>0.33151323534548283</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.31016253726556897</v>
+        <v>0.31</v>
       </c>
       <c r="C15" s="7">
-        <v>0.36586941592395306</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D15" s="7">
-        <v>0.25437225960195065</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.31221379153430462</v>
+        <v>0.312</v>
       </c>
       <c r="C16" s="7">
-        <v>0.35085169970989227</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D16" s="7">
-        <v>0.28160653542727232</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
   </sheetData>
